--- a/backend/schedules/formattingwinter.xlsx
+++ b/backend/schedules/formattingwinter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/808e26ef5c7c7e02/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdleg\Downloads\Programs\Mac_Calendar\v1\backend\schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="448" documentId="13_ncr:1_{C64BA6D9-DC26-4DB9-B8B8-2AD81F2B0DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D5A2496-32DC-4225-A498-A0CC5C8C5BD8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F50F040-67DC-4069-87B2-802711770804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5832" yWindow="756" windowWidth="13212" windowHeight="11304" xr2:uid="{E995DC54-3819-43BE-8032-6F2DF4EEAA3C}"/>
+    <workbookView xWindow="2715" yWindow="3975" windowWidth="21600" windowHeight="11835" xr2:uid="{E995DC54-3819-43BE-8032-6F2DF4EEAA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>LEVEL 2 ENGPHYS and MANAGEMNT</t>
   </si>
   <si>
-    <t>COMMERCE 1AA3</t>
-  </si>
-  <si>
     <t>LEVEL 3 ENGPHYS and MANAGEMNT</t>
   </si>
   <si>
@@ -378,6 +375,9 @@
   </si>
   <si>
     <t>T11</t>
+  </si>
+  <si>
+    <t>COMMERCE</t>
   </si>
 </sst>
 </file>
@@ -488,17 +488,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -817,45 +816,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2E4A7C-EC86-4865-956A-D94F151C0070}">
   <dimension ref="A1:J166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G154" sqref="G154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -869,7 +868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -877,7 +876,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -895,11 +894,11 @@
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -913,416 +912,416 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>2251</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2251</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H6" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2251</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G7" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="H7" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2251</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="H8" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2251</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="6">
+        <v>13.3</v>
+      </c>
+      <c r="H9" s="6">
+        <v>15.2</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2251</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="6">
+        <v>15.3</v>
+      </c>
+      <c r="H10" s="6">
+        <v>17.2</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2251</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H11" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I11" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2251</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="H12" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>2251</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2251</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D13" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="6">
+        <v>12.3</v>
+      </c>
+      <c r="H13" s="6">
+        <v>14.2</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2251</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H14" s="6">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2251</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="H15" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="7">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2251</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="6">
         <v>11.3</v>
       </c>
-      <c r="H7" s="7">
-        <v>12.2</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="H16" s="6">
+        <v>13.2</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>2251</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2251</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D17" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7">
-        <v>11.3</v>
-      </c>
-      <c r="H8" s="7">
-        <v>12.2</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>2251</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="6">
+        <v>15.3</v>
+      </c>
+      <c r="H17" s="6">
+        <v>17.2</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2251</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D18" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="7">
-        <v>13.3</v>
-      </c>
-      <c r="H9" s="7">
-        <v>15.2</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>2251</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="6">
+        <v>14.3</v>
+      </c>
+      <c r="H18" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2251</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D19" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="7">
-        <v>15.3</v>
-      </c>
-      <c r="H10" s="7">
-        <v>17.2</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>2251</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="7">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="H11" s="7">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>2251</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7">
-        <v>11.3</v>
-      </c>
-      <c r="H12" s="7">
-        <v>12.2</v>
-      </c>
-      <c r="I12" s="7" t="s">
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="6">
+        <v>16.3</v>
+      </c>
+      <c r="H19" s="6">
+        <v>18.2</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>2251</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="7">
-        <v>12.3</v>
-      </c>
-      <c r="H13" s="7">
-        <v>14.2</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>2251</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="7">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="H14" s="7">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>2251</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="7">
-        <v>11.3</v>
-      </c>
-      <c r="H15" s="7">
-        <v>12.2</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>2251</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="7">
-        <v>11.3</v>
-      </c>
-      <c r="H16" s="7">
-        <v>13.2</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
-        <v>2251</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="7">
-        <v>15.3</v>
-      </c>
-      <c r="H17" s="7">
-        <v>17.2</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>2251</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="7">
-        <v>14.3</v>
-      </c>
-      <c r="H18" s="7">
-        <v>16.2</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <v>2251</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="7">
-        <v>16.3</v>
-      </c>
-      <c r="H19" s="7">
-        <v>18.2</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1336,7 +1335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1344,7 +1343,7 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -1362,24 +1361,24 @@
         <v>22</v>
       </c>
       <c r="I22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2251</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>6</v>
@@ -1391,24 +1390,24 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2251</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>6</v>
@@ -1420,24 +1419,24 @@
         <v>13.2</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2251</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>6</v>
@@ -1449,27 +1448,27 @@
         <v>17.2</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2251</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27" s="3">
         <v>9.3000000000000007</v>
@@ -1478,27 +1477,27 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2251</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28" s="3">
         <v>10.3</v>
@@ -1507,27 +1506,27 @@
         <v>12.2</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2251</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E29" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" s="3">
         <v>13.3</v>
@@ -1536,27 +1535,27 @@
         <v>14.2</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2251</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30" s="3">
         <v>17.3</v>
@@ -1565,27 +1564,27 @@
         <v>18.2</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2251</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" s="3">
         <v>8.3000000000000007</v>
@@ -1594,27 +1593,27 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2251</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G32" s="3">
         <v>10.3</v>
@@ -1623,27 +1622,27 @@
         <v>12.2</v>
       </c>
       <c r="I32" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>2251</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>2251</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="F33" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G33" s="3">
         <v>16.3</v>
@@ -1652,27 +1651,27 @@
         <v>18.2</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2251</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E34" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G34" s="3">
         <v>12.3</v>
@@ -1681,27 +1680,27 @@
         <v>13.2</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2251</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G35" s="3">
         <v>17.3</v>
@@ -1710,27 +1709,27 @@
         <v>18.2</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2251</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E36" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G36" s="3">
         <v>9.3000000000000007</v>
@@ -1739,27 +1738,27 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2251</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G37" s="3">
         <v>10.3</v>
@@ -1768,13 +1767,13 @@
         <v>12.2</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G39" t="s">
         <v>0</v>
@@ -1786,65 +1785,65 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="6" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="H40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" s="7" t="s">
+      <c r="F41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" t="s">
         <v>58</v>
       </c>
-      <c r="H40" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1861,7 +1860,7 @@
         <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G43">
         <v>16.3</v>
@@ -1870,11 +1869,11 @@
         <v>18.2</v>
       </c>
       <c r="I43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>14</v>
       </c>
@@ -1888,21 +1887,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
         <v>6</v>
@@ -1914,21 +1913,21 @@
         <v>13.2</v>
       </c>
       <c r="I47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2241</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E48" t="s">
         <v>5</v>
@@ -1943,27 +1942,27 @@
         <v>18.2</v>
       </c>
       <c r="I48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2241</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" t="s">
         <v>40</v>
-      </c>
-      <c r="D49" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" t="s">
-        <v>35</v>
-      </c>
-      <c r="F49" t="s">
-        <v>41</v>
       </c>
       <c r="G49">
         <v>8.3000000000000007</v>
@@ -1972,27 +1971,27 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I49" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2241</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" t="s">
         <v>40</v>
-      </c>
-      <c r="D50" t="s">
-        <v>79</v>
-      </c>
-      <c r="E50" t="s">
-        <v>31</v>
-      </c>
-      <c r="F50" t="s">
-        <v>41</v>
       </c>
       <c r="G50">
         <v>9.3000000000000007</v>
@@ -2001,27 +2000,27 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2241</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" t="s">
         <v>40</v>
-      </c>
-      <c r="D51" t="s">
-        <v>79</v>
-      </c>
-      <c r="E51" t="s">
-        <v>37</v>
-      </c>
-      <c r="F51" t="s">
-        <v>41</v>
       </c>
       <c r="G51">
         <v>11.3</v>
@@ -2030,27 +2029,27 @@
         <v>12.2</v>
       </c>
       <c r="I51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2241</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" t="s">
         <v>40</v>
-      </c>
-      <c r="D52" t="s">
-        <v>79</v>
-      </c>
-      <c r="E52" t="s">
-        <v>33</v>
-      </c>
-      <c r="F52" t="s">
-        <v>41</v>
       </c>
       <c r="G52">
         <v>11.3</v>
@@ -2059,27 +2058,27 @@
         <v>12.2</v>
       </c>
       <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2241</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" t="s">
         <v>40</v>
-      </c>
-      <c r="D53" t="s">
-        <v>79</v>
-      </c>
-      <c r="E53" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" t="s">
-        <v>41</v>
       </c>
       <c r="G53">
         <v>13.3</v>
@@ -2088,27 +2087,27 @@
         <v>14.2</v>
       </c>
       <c r="I53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2241</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G54">
         <v>9.3000000000000007</v>
@@ -2117,27 +2116,27 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2241</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E55" t="s">
         <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G55">
         <v>17.3</v>
@@ -2146,27 +2145,27 @@
         <v>18.2</v>
       </c>
       <c r="I55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2241</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G56">
         <v>8.3000000000000007</v>
@@ -2175,27 +2174,27 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2241</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E57" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" t="s">
         <v>37</v>
-      </c>
-      <c r="F57" t="s">
-        <v>38</v>
       </c>
       <c r="G57">
         <v>11.3</v>
@@ -2204,27 +2203,27 @@
         <v>12.2</v>
       </c>
       <c r="I57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2241</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G58">
         <v>11.3</v>
@@ -2233,27 +2232,27 @@
         <v>12.2</v>
       </c>
       <c r="I58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2241</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G59">
         <v>12.3</v>
@@ -2262,27 +2261,27 @@
         <v>13.2</v>
       </c>
       <c r="I59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2241</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E60" t="s">
         <v>5</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G60">
         <v>17.3</v>
@@ -2291,27 +2290,27 @@
         <v>18.2</v>
       </c>
       <c r="I60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2241</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G61">
         <v>8.3000000000000007</v>
@@ -2320,27 +2319,27 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I61" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2241</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G62">
         <v>9.3000000000000007</v>
@@ -2349,27 +2348,27 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2241</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G63">
         <v>11.3</v>
@@ -2378,27 +2377,27 @@
         <v>12.2</v>
       </c>
       <c r="I63" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2241</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G64">
         <v>11.3</v>
@@ -2407,16 +2406,16 @@
         <v>12.2</v>
       </c>
       <c r="I64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G66" t="s">
         <v>0</v>
@@ -2428,21 +2427,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C67" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" t="s">
         <v>84</v>
       </c>
-      <c r="D67" t="s">
-        <v>85</v>
-      </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F67" t="s">
         <v>6</v>
@@ -2454,24 +2453,24 @@
         <v>11.2</v>
       </c>
       <c r="I67" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" t="s">
         <v>84</v>
       </c>
-      <c r="D68" t="s">
-        <v>85</v>
-      </c>
       <c r="E68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
         <v>6</v>
@@ -2483,24 +2482,24 @@
         <v>14.2</v>
       </c>
       <c r="I68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C69" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" t="s">
         <v>84</v>
       </c>
-      <c r="D69" t="s">
-        <v>85</v>
-      </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
         <v>6</v>
@@ -2512,24 +2511,24 @@
         <v>16.2</v>
       </c>
       <c r="I69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C70" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" t="s">
         <v>84</v>
       </c>
-      <c r="D70" t="s">
-        <v>85</v>
-      </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
@@ -2541,27 +2540,27 @@
         <v>17.2</v>
       </c>
       <c r="I70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" t="s">
         <v>84</v>
       </c>
-      <c r="D71" t="s">
-        <v>85</v>
-      </c>
       <c r="E71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G71">
         <v>8.3000000000000007</v>
@@ -2570,27 +2569,27 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I71" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C72" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" t="s">
         <v>84</v>
-      </c>
-      <c r="D72" t="s">
-        <v>85</v>
       </c>
       <c r="E72" t="s">
         <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G72">
         <v>8.3000000000000007</v>
@@ -2599,27 +2598,27 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C73" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" t="s">
         <v>84</v>
       </c>
-      <c r="D73" t="s">
-        <v>85</v>
-      </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G73">
         <v>11.3</v>
@@ -2628,27 +2627,27 @@
         <v>12.2</v>
       </c>
       <c r="I73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C74" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" t="s">
         <v>84</v>
       </c>
-      <c r="D74" t="s">
-        <v>85</v>
-      </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G74">
         <v>16.3</v>
@@ -2657,27 +2656,27 @@
         <v>17.2</v>
       </c>
       <c r="I74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C75" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" t="s">
         <v>84</v>
       </c>
-      <c r="D75" t="s">
-        <v>85</v>
-      </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G75">
         <v>10.3</v>
@@ -2686,27 +2685,27 @@
         <v>11.2</v>
       </c>
       <c r="I75" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C76" t="s">
+        <v>83</v>
+      </c>
+      <c r="D76" t="s">
         <v>84</v>
       </c>
-      <c r="D76" t="s">
-        <v>85</v>
-      </c>
       <c r="E76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G76">
         <v>13.3</v>
@@ -2715,27 +2714,27 @@
         <v>14.2</v>
       </c>
       <c r="I76" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77" t="s">
         <v>84</v>
       </c>
-      <c r="D77" t="s">
-        <v>85</v>
-      </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G77">
         <v>16.3</v>
@@ -2744,27 +2743,27 @@
         <v>17.2</v>
       </c>
       <c r="I77" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C78" t="s">
+        <v>83</v>
+      </c>
+      <c r="D78" t="s">
         <v>84</v>
       </c>
-      <c r="D78" t="s">
-        <v>85</v>
-      </c>
       <c r="E78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G78">
         <v>8.3000000000000007</v>
@@ -2773,27 +2772,27 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I78" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" t="s">
         <v>84</v>
-      </c>
-      <c r="D79" t="s">
-        <v>85</v>
       </c>
       <c r="E79" t="s">
         <v>5</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G79">
         <v>8.3000000000000007</v>
@@ -2802,27 +2801,27 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I79" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C80" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" t="s">
         <v>84</v>
       </c>
-      <c r="D80" t="s">
-        <v>85</v>
-      </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G80">
         <v>10.3</v>
@@ -2831,27 +2830,27 @@
         <v>11.2</v>
       </c>
       <c r="I80" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C81" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" t="s">
         <v>84</v>
       </c>
-      <c r="D81" t="s">
-        <v>85</v>
-      </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G81">
         <v>11.3</v>
@@ -2860,27 +2859,27 @@
         <v>12.2</v>
       </c>
       <c r="I81" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" t="s">
         <v>84</v>
       </c>
-      <c r="D82" t="s">
-        <v>85</v>
-      </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G82">
         <v>13.3</v>
@@ -2889,27 +2888,27 @@
         <v>14.2</v>
       </c>
       <c r="I82" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C83" t="s">
+        <v>83</v>
+      </c>
+      <c r="D83" t="s">
         <v>84</v>
       </c>
-      <c r="D83" t="s">
-        <v>85</v>
-      </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G83">
         <v>15.3</v>
@@ -2918,27 +2917,27 @@
         <v>16.2</v>
       </c>
       <c r="I83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" t="s">
         <v>84</v>
       </c>
-      <c r="D84" t="s">
-        <v>85</v>
-      </c>
       <c r="E84" t="s">
+        <v>36</v>
+      </c>
+      <c r="F84" t="s">
         <v>37</v>
-      </c>
-      <c r="F84" t="s">
-        <v>38</v>
       </c>
       <c r="G84">
         <v>16.3</v>
@@ -2947,27 +2946,27 @@
         <v>17.2</v>
       </c>
       <c r="I84" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C85" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" t="s">
         <v>84</v>
       </c>
-      <c r="D85" t="s">
-        <v>85</v>
-      </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G85">
         <v>8.3000000000000007</v>
@@ -2976,27 +2975,27 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I85" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C86" t="s">
+        <v>83</v>
+      </c>
+      <c r="D86" t="s">
         <v>84</v>
-      </c>
-      <c r="D86" t="s">
-        <v>85</v>
       </c>
       <c r="E86" t="s">
         <v>5</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G86">
         <v>8.3000000000000007</v>
@@ -3005,27 +3004,27 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I86" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C87" t="s">
+        <v>83</v>
+      </c>
+      <c r="D87" t="s">
         <v>84</v>
       </c>
-      <c r="D87" t="s">
-        <v>85</v>
-      </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G87">
         <v>11.3</v>
@@ -3034,24 +3033,24 @@
         <v>12.2</v>
       </c>
       <c r="I87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>2251</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E89" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>6</v>
@@ -3063,21 +3062,21 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>2251</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>5</v>
@@ -3092,27 +3091,27 @@
         <v>12.2</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>2251</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E91" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G91" s="3">
         <v>11.3</v>
@@ -3121,27 +3120,27 @@
         <v>12.2</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>2251</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E92" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G92" s="3">
         <v>13.3</v>
@@ -3150,27 +3149,27 @@
         <v>15.2</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>2251</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E93" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G93" s="3">
         <v>15.3</v>
@@ -3179,27 +3178,27 @@
         <v>17.2</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>2251</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E94" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G94" s="3">
         <v>8.3000000000000007</v>
@@ -3208,27 +3207,27 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>2251</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G95" s="3">
         <v>11.3</v>
@@ -3237,27 +3236,27 @@
         <v>12.2</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>2251</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E96" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G96" s="3">
         <v>12.3</v>
@@ -3266,27 +3265,27 @@
         <v>14.2</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>2251</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E97" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G97" s="3">
         <v>8.3000000000000007</v>
@@ -3295,27 +3294,27 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>2251</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="D98" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E98" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G98" s="3">
         <v>11.3</v>
@@ -3324,27 +3323,27 @@
         <v>12.2</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>2251</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="D99" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E99" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G99" s="3">
         <v>11.3</v>
@@ -3353,27 +3352,27 @@
         <v>13.2</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>2251</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E100" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G100" s="3">
         <v>15.3</v>
@@ -3382,27 +3381,27 @@
         <v>17.2</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>2251</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E101" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G101" s="3">
         <v>14.3</v>
@@ -3411,27 +3410,27 @@
         <v>16.2</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>2251</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="D102" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E102" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G102" s="3">
         <v>16.3</v>
@@ -3440,10 +3439,10 @@
         <v>18.2</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3454,24 +3453,24 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2241</v>
       </c>
       <c r="B104" t="s">
+        <v>99</v>
+      </c>
+      <c r="C104" t="s">
         <v>100</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>101</v>
-      </c>
-      <c r="D104" t="s">
-        <v>102</v>
       </c>
       <c r="E104" t="s">
         <v>5</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G104">
         <v>10.3</v>
@@ -3480,27 +3479,27 @@
         <v>11.2</v>
       </c>
       <c r="I104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2241</v>
       </c>
       <c r="B105" t="s">
+        <v>99</v>
+      </c>
+      <c r="C105" t="s">
         <v>100</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>101</v>
       </c>
-      <c r="D105" t="s">
-        <v>102</v>
-      </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G105">
         <v>12.3</v>
@@ -3509,27 +3508,27 @@
         <v>13.2</v>
       </c>
       <c r="I105" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2241</v>
       </c>
       <c r="B106" t="s">
+        <v>99</v>
+      </c>
+      <c r="C106" t="s">
         <v>100</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>101</v>
       </c>
-      <c r="D106" t="s">
-        <v>102</v>
-      </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G106">
         <v>16.3</v>
@@ -3538,27 +3537,27 @@
         <v>17.2</v>
       </c>
       <c r="I106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2241</v>
       </c>
       <c r="B107" t="s">
+        <v>99</v>
+      </c>
+      <c r="C107" t="s">
         <v>100</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>101</v>
       </c>
-      <c r="D107" t="s">
-        <v>102</v>
-      </c>
       <c r="E107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G107">
         <v>10.3</v>
@@ -3567,27 +3566,27 @@
         <v>11.2</v>
       </c>
       <c r="I107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2241</v>
       </c>
       <c r="B108" t="s">
+        <v>99</v>
+      </c>
+      <c r="C108" t="s">
         <v>100</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>101</v>
       </c>
-      <c r="D108" t="s">
-        <v>102</v>
-      </c>
       <c r="E108" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G108">
         <v>11.3</v>
@@ -3596,27 +3595,27 @@
         <v>12.2</v>
       </c>
       <c r="I108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2241</v>
       </c>
       <c r="B109" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109" t="s">
         <v>100</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>101</v>
       </c>
-      <c r="D109" t="s">
-        <v>102</v>
-      </c>
       <c r="E109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G109">
         <v>12.3</v>
@@ -3625,27 +3624,27 @@
         <v>13.2</v>
       </c>
       <c r="I109" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2241</v>
       </c>
       <c r="B110" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" t="s">
         <v>100</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>101</v>
       </c>
-      <c r="D110" t="s">
-        <v>102</v>
-      </c>
       <c r="E110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G110">
         <v>14.3</v>
@@ -3654,27 +3653,27 @@
         <v>15.2</v>
       </c>
       <c r="I110" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2241</v>
       </c>
       <c r="B111" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" t="s">
         <v>100</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>101</v>
       </c>
-      <c r="D111" t="s">
-        <v>102</v>
-      </c>
       <c r="E111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G111">
         <v>11.3</v>
@@ -3683,27 +3682,27 @@
         <v>12.2</v>
       </c>
       <c r="I111" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2241</v>
       </c>
       <c r="B112" t="s">
+        <v>99</v>
+      </c>
+      <c r="C112" t="s">
         <v>100</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>101</v>
       </c>
-      <c r="D112" t="s">
-        <v>102</v>
-      </c>
       <c r="E112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G112">
         <v>13.3</v>
@@ -3712,27 +3711,27 @@
         <v>14.2</v>
       </c>
       <c r="I112" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2241</v>
       </c>
       <c r="B113" t="s">
+        <v>99</v>
+      </c>
+      <c r="C113" t="s">
         <v>100</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>101</v>
       </c>
-      <c r="D113" t="s">
-        <v>102</v>
-      </c>
       <c r="E113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G113">
         <v>12.3</v>
@@ -3741,13 +3740,13 @@
         <v>13.2</v>
       </c>
       <c r="I113" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="115" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="115" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G115" t="s">
         <v>0</v>
@@ -3759,21 +3758,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2241</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C116" t="s">
+        <v>88</v>
+      </c>
+      <c r="D116" t="s">
         <v>89</v>
       </c>
-      <c r="D116" t="s">
-        <v>90</v>
-      </c>
       <c r="E116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F116" t="s">
         <v>6</v>
@@ -3785,24 +3784,24 @@
         <v>12.2</v>
       </c>
       <c r="I116" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2241</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C117" t="s">
+        <v>88</v>
+      </c>
+      <c r="D117" t="s">
         <v>89</v>
       </c>
-      <c r="D117" t="s">
-        <v>90</v>
-      </c>
       <c r="E117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F117" t="s">
         <v>6</v>
@@ -3814,27 +3813,27 @@
         <v>14.2</v>
       </c>
       <c r="I117" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2241</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C118" t="s">
+        <v>88</v>
+      </c>
+      <c r="D118" t="s">
         <v>89</v>
       </c>
-      <c r="D118" t="s">
-        <v>90</v>
-      </c>
       <c r="E118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G118">
         <v>13.3</v>
@@ -3843,27 +3842,27 @@
         <v>14.2</v>
       </c>
       <c r="I118" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2241</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C119" t="s">
+        <v>88</v>
+      </c>
+      <c r="D119" t="s">
         <v>89</v>
       </c>
-      <c r="D119" t="s">
-        <v>90</v>
-      </c>
       <c r="E119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G119">
         <v>14.3</v>
@@ -3872,27 +3871,27 @@
         <v>16.2</v>
       </c>
       <c r="I119" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2241</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C120" t="s">
+        <v>88</v>
+      </c>
+      <c r="D120" t="s">
         <v>89</v>
       </c>
-      <c r="D120" t="s">
-        <v>90</v>
-      </c>
       <c r="E120" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G120">
         <v>14.3</v>
@@ -3901,27 +3900,27 @@
         <v>17.2</v>
       </c>
       <c r="I120" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2241</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C121" t="s">
+        <v>88</v>
+      </c>
+      <c r="D121" t="s">
         <v>89</v>
       </c>
-      <c r="D121" t="s">
-        <v>90</v>
-      </c>
       <c r="E121" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G121">
         <v>16.3</v>
@@ -3930,27 +3929,27 @@
         <v>18.2</v>
       </c>
       <c r="I121" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2241</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C122" t="s">
+        <v>88</v>
+      </c>
+      <c r="D122" t="s">
         <v>89</v>
       </c>
-      <c r="D122" t="s">
-        <v>90</v>
-      </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G122">
         <v>17.3</v>
@@ -3959,27 +3958,27 @@
         <v>18.2</v>
       </c>
       <c r="I122" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2241</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C123" t="s">
+        <v>88</v>
+      </c>
+      <c r="D123" t="s">
         <v>89</v>
       </c>
-      <c r="D123" t="s">
-        <v>90</v>
-      </c>
       <c r="E123" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G123">
         <v>10.3</v>
@@ -3988,27 +3987,27 @@
         <v>11.2</v>
       </c>
       <c r="I123" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2241</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C124" t="s">
+        <v>88</v>
+      </c>
+      <c r="D124" t="s">
         <v>89</v>
       </c>
-      <c r="D124" t="s">
-        <v>90</v>
-      </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G124">
         <v>11.3</v>
@@ -4017,27 +4016,27 @@
         <v>12.2</v>
       </c>
       <c r="I124" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2241</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C125" t="s">
+        <v>88</v>
+      </c>
+      <c r="D125" t="s">
         <v>89</v>
       </c>
-      <c r="D125" t="s">
-        <v>90</v>
-      </c>
       <c r="E125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G125">
         <v>11.3</v>
@@ -4046,27 +4045,27 @@
         <v>14.2</v>
       </c>
       <c r="I125" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2241</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C126" t="s">
+        <v>88</v>
+      </c>
+      <c r="D126" t="s">
         <v>89</v>
       </c>
-      <c r="D126" t="s">
-        <v>90</v>
-      </c>
       <c r="E126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G126">
         <v>12.3</v>
@@ -4075,27 +4074,27 @@
         <v>14.2</v>
       </c>
       <c r="I126" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2241</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C127" t="s">
+        <v>88</v>
+      </c>
+      <c r="D127" t="s">
         <v>89</v>
       </c>
-      <c r="D127" t="s">
-        <v>90</v>
-      </c>
       <c r="E127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G127">
         <v>14.3</v>
@@ -4104,27 +4103,27 @@
         <v>15.2</v>
       </c>
       <c r="I127" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2241</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C128" t="s">
+        <v>88</v>
+      </c>
+      <c r="D128" t="s">
         <v>89</v>
-      </c>
-      <c r="D128" t="s">
-        <v>90</v>
       </c>
       <c r="E128" t="s">
         <v>5</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G128">
         <v>14.3</v>
@@ -4133,27 +4132,27 @@
         <v>17.2</v>
       </c>
       <c r="I128" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2241</v>
       </c>
       <c r="B129" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C129" t="s">
+        <v>88</v>
+      </c>
+      <c r="D129" t="s">
         <v>89</v>
       </c>
-      <c r="D129" t="s">
-        <v>90</v>
-      </c>
       <c r="E129" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G129">
         <v>16.3</v>
@@ -4162,27 +4161,27 @@
         <v>17.2</v>
       </c>
       <c r="I129" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2241</v>
       </c>
       <c r="B130" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C130" t="s">
+        <v>88</v>
+      </c>
+      <c r="D130" t="s">
         <v>89</v>
       </c>
-      <c r="D130" t="s">
-        <v>90</v>
-      </c>
       <c r="E130" t="s">
+        <v>36</v>
+      </c>
+      <c r="F130" t="s">
         <v>37</v>
-      </c>
-      <c r="F130" t="s">
-        <v>38</v>
       </c>
       <c r="G130">
         <v>16.3</v>
@@ -4191,27 +4190,27 @@
         <v>18.2</v>
       </c>
       <c r="I130" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2241</v>
       </c>
       <c r="B131" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C131" t="s">
+        <v>88</v>
+      </c>
+      <c r="D131" t="s">
         <v>89</v>
       </c>
-      <c r="D131" t="s">
-        <v>90</v>
-      </c>
       <c r="E131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G131">
         <v>10.3</v>
@@ -4220,27 +4219,27 @@
         <v>12.2</v>
       </c>
       <c r="I131" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2241</v>
       </c>
       <c r="B132" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C132" t="s">
+        <v>88</v>
+      </c>
+      <c r="D132" t="s">
         <v>89</v>
       </c>
-      <c r="D132" t="s">
-        <v>90</v>
-      </c>
       <c r="E132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G132">
         <v>14.3</v>
@@ -4249,24 +4248,24 @@
         <v>17.2</v>
       </c>
       <c r="I132" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>2251</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C134" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D134" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E134" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>6</v>
@@ -4278,24 +4277,24 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>2251</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C135" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D135" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D135" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E135" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>6</v>
@@ -4307,24 +4306,24 @@
         <v>13.2</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>2251</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C136" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D136" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E136" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>6</v>
@@ -4336,27 +4335,27 @@
         <v>17.2</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>2251</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C137" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E137" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G137" s="3">
         <v>9.3000000000000007</v>
@@ -4365,27 +4364,27 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>2251</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C138" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E138" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G138" s="3">
         <v>10.3</v>
@@ -4394,27 +4393,27 @@
         <v>12.2</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>2251</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C139" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E139" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G139" s="3">
         <v>13.3</v>
@@ -4423,27 +4422,27 @@
         <v>14.2</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>2251</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C140" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G140" s="3">
         <v>17.3</v>
@@ -4452,27 +4451,27 @@
         <v>18.2</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>2251</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C141" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E141" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G141" s="3">
         <v>8.3000000000000007</v>
@@ -4481,27 +4480,27 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>2251</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C142" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D142" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E142" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G142" s="3">
         <v>10.3</v>
@@ -4510,27 +4509,27 @@
         <v>12.2</v>
       </c>
       <c r="I142" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>2251</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E143" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143" s="3">
-        <v>2251</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="F143" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G143" s="3">
         <v>16.3</v>
@@ -4539,27 +4538,27 @@
         <v>18.2</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>2251</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C144" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D144" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E144" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G144" s="3">
         <v>12.3</v>
@@ -4568,27 +4567,27 @@
         <v>13.2</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>2251</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C145" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D145" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G145" s="3">
         <v>17.3</v>
@@ -4597,27 +4596,27 @@
         <v>18.2</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>2251</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C146" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D146" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D146" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E146" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G146" s="3">
         <v>9.3000000000000007</v>
@@ -4626,27 +4625,27 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>2251</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C147" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D147" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D147" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E147" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G147" s="3">
         <v>10.3</v>
@@ -4655,10 +4654,10 @@
         <v>12.2</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -4669,24 +4668,24 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>3</v>
       </c>
       <c r="B149" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C149" t="s">
+        <v>96</v>
+      </c>
+      <c r="D149" t="s">
         <v>97</v>
-      </c>
-      <c r="D149" t="s">
-        <v>98</v>
       </c>
       <c r="E149" t="s">
         <v>5</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G149">
         <v>11.3</v>
@@ -4695,13 +4694,13 @@
         <v>14.2</v>
       </c>
       <c r="I149" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="151" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="151" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G151" t="s">
         <v>0</v>
@@ -4713,21 +4712,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>3</v>
       </c>
       <c r="B152" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C152" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F152" t="s">
         <v>6</v>
@@ -4739,24 +4738,24 @@
         <v>11.2</v>
       </c>
       <c r="I152" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>3</v>
       </c>
       <c r="B153" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C153" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E153" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F153" t="s">
         <v>6</v>
@@ -4768,24 +4767,24 @@
         <v>14.2</v>
       </c>
       <c r="I153" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>3</v>
       </c>
       <c r="B154" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C154" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D154" t="s">
+        <v>48</v>
+      </c>
+      <c r="E154" t="s">
         <v>49</v>
-      </c>
-      <c r="E154" t="s">
-        <v>50</v>
       </c>
       <c r="F154" t="s">
         <v>6</v>
@@ -4797,24 +4796,24 @@
         <v>17.2</v>
       </c>
       <c r="I154" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>3</v>
       </c>
       <c r="B155" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C155" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F155" t="s">
         <v>6</v>
@@ -4826,27 +4825,27 @@
         <v>22</v>
       </c>
       <c r="I155" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>3</v>
       </c>
       <c r="B156" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C156" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D156" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E156" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G156">
         <v>8.3000000000000007</v>
@@ -4855,27 +4854,27 @@
         <v>11.2</v>
       </c>
       <c r="I156" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>3</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C157" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G157">
         <v>11.3</v>
@@ -4884,27 +4883,27 @@
         <v>14.2</v>
       </c>
       <c r="I157" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>3</v>
       </c>
       <c r="B158" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C158" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D158" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G158">
         <v>8.3000000000000007</v>
@@ -4913,27 +4912,27 @@
         <v>11.2</v>
       </c>
       <c r="I158" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>3</v>
       </c>
       <c r="B159" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C159" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D159" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G159">
         <v>8.3000000000000007</v>
@@ -4942,27 +4941,27 @@
         <v>11.2</v>
       </c>
       <c r="I159" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>3</v>
       </c>
       <c r="B160" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C160" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G160">
         <v>11.3</v>
@@ -4971,27 +4970,27 @@
         <v>14.2</v>
       </c>
       <c r="I160" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>3</v>
       </c>
       <c r="B161" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C161" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D161" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E161" t="s">
         <v>5</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G161">
         <v>14.3</v>
@@ -5000,27 +4999,27 @@
         <v>17.2</v>
       </c>
       <c r="I161" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>3</v>
       </c>
       <c r="B162" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E162" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F162" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G162">
         <v>11.3</v>
@@ -5029,27 +5028,27 @@
         <v>14.2</v>
       </c>
       <c r="I162" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>3</v>
       </c>
       <c r="B163" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C163" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D163" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E163" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G163">
         <v>14.3</v>
@@ -5058,65 +5057,65 @@
         <v>17.2</v>
       </c>
       <c r="I163" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A165" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B165" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>41</v>
+      </c>
+      <c r="B165" t="s">
         <v>4</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C165" t="s">
+        <v>55</v>
+      </c>
+      <c r="D165" t="s">
         <v>56</v>
       </c>
-      <c r="D165" s="6" t="s">
+      <c r="E165" t="s">
+        <v>5</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G165" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E165" s="6" t="s">
+      <c r="H165" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I165" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>41</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" t="s">
+        <v>55</v>
+      </c>
+      <c r="D166" t="s">
+        <v>56</v>
+      </c>
+      <c r="E166" t="s">
         <v>5</v>
       </c>
-      <c r="F165" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G165" s="7" t="s">
+      <c r="F166" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H166" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I166" t="s">
         <v>58</v>
-      </c>
-      <c r="H165" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I165" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A166" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F166" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H166" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I166" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
